--- a/data/trans_bre/P1408-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1408-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.02634200398208362</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.4942446571599944</v>
+        <v>-0.4942446571599937</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4058057493929637</v>
@@ -649,7 +649,7 @@
         <v>-0.01822584102934757</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1553256812179626</v>
+        <v>-0.1553256812179625</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.259990742310752</v>
+        <v>-3.181184251926222</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.603972037323254</v>
+        <v>-3.904299028156106</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.342961043586716</v>
+        <v>-1.23289598253537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.149553273659133</v>
+        <v>-2.184126533966331</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7112965033771655</v>
+        <v>-0.7168573166172546</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7756948768126163</v>
+        <v>-0.7877797893698577</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.670572592647366</v>
+        <v>-0.5997786234533038</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.494110882739504</v>
+        <v>-0.4978381308220863</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1674886930510744</v>
+        <v>0.1102686203436879</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09306030173820157</v>
+        <v>0.0540651830673121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.205512072966644</v>
+        <v>1.378348763605034</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8879028908768883</v>
+        <v>0.8475334236558376</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.07867585019474602</v>
+        <v>0.1016728774362042</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1391550576326733</v>
+        <v>0.1004327702923575</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.56577039843453</v>
+        <v>1.644134916453143</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.391459659152369</v>
+        <v>0.4092957970565404</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.308339981644004</v>
+        <v>-4.359570785696077</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.068177173550762</v>
+        <v>-2.173501554152541</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.97451017341962</v>
+        <v>-1.899348299691091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.025719014769856</v>
+        <v>-1.01046275666883</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7088590072074977</v>
+        <v>-0.6987445135700769</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8170419561460562</v>
+        <v>-0.7968903138130182</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.692051411528165</v>
+        <v>-0.6982253445010329</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3456141818576921</v>
+        <v>-0.3424686505778775</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.8473814728139338</v>
+        <v>-0.8228271147721398</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.06922669729893913</v>
+        <v>-0.03998638679300127</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3141150645503116</v>
+        <v>0.5087370967020299</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.505388177402957</v>
+        <v>1.544012454127147</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1767696962698905</v>
+        <v>-0.1715151180374569</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01477790419761488</v>
+        <v>0.1020921588705095</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2139319860747326</v>
+        <v>0.4259345490380355</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8353747711373297</v>
+        <v>0.9064728387637209</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.346013638053371</v>
+        <v>-2.244579830880534</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.246132996642297</v>
+        <v>-2.275676812796386</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.306062108238345</v>
+        <v>-1.306700559363073</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.683237993332016</v>
+        <v>-1.722095521137138</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5101392291470884</v>
+        <v>-0.4850531383741556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8201261103263049</v>
+        <v>-0.8320531173148994</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5764165392613558</v>
+        <v>-0.5790619540855637</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5558113328248543</v>
+        <v>-0.5717477610925445</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.666787462234993</v>
+        <v>1.580404824348433</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2737182643873819</v>
+        <v>0.1861501914100611</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.468811839063132</v>
+        <v>1.412878731724434</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.123518526469377</v>
+        <v>1.118061323892537</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6396025560240256</v>
+        <v>0.6554489510626219</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2889810235827939</v>
+        <v>0.3361802219310621</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.500017277136562</v>
+        <v>1.407250245178219</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8009872116504485</v>
+        <v>0.8088294734320227</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.666341161793669</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3959183552885177</v>
+        <v>0.3959183552885173</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2691083466802746</v>
@@ -949,7 +949,7 @@
         <v>-0.6914670405814314</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.151658383975574</v>
+        <v>0.1516583839755739</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.623578334504288</v>
+        <v>-2.782551780469543</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.455910581014473</v>
+        <v>-1.574721273475906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.912259507233316</v>
+        <v>-2.914721699966506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7697152034008453</v>
+        <v>-0.8704331099721484</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5328112286029992</v>
+        <v>-0.5441174620733509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6595076984141314</v>
+        <v>-0.6720655534590476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8829846799011339</v>
+        <v>-0.8757658154120113</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2436924836646001</v>
+        <v>-0.2516006891253478</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5400792573937936</v>
+        <v>0.4234885785114302</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6466858503119924</v>
+        <v>0.5779470853588006</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.6486792838111808</v>
+        <v>-0.7001530753359129</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.633399008579574</v>
+        <v>1.578424850189396</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1639723021368267</v>
+        <v>0.153206521978894</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.653837994969332</v>
+        <v>0.6534754250954192</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2740998844487451</v>
+        <v>-0.2925400709312631</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.867926330396433</v>
+        <v>0.7851766431915317</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.6743451074183514</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02077897198490553</v>
+        <v>0.02077897198490587</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.3474918286776134</v>
@@ -1049,7 +1049,7 @@
         <v>-0.3443076767982053</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.008149999135028159</v>
+        <v>0.008149999135028296</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.332061064233431</v>
+        <v>-2.388119986784193</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.592964535002464</v>
+        <v>-1.557945587064732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.331846856493736</v>
+        <v>-1.258089709567507</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7233743047967225</v>
+        <v>-0.662794141035731</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4984370533910211</v>
+        <v>-0.5143196400702617</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6213558791546866</v>
+        <v>-0.6226144186108075</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5620873731263245</v>
+        <v>-0.558892980418026</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2443532729268401</v>
+        <v>-0.2274145562716402</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.5692304976613274</v>
+        <v>-0.5175995563381459</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.2240427879206857</v>
+        <v>-0.2867292425548474</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.09365247252870891</v>
+        <v>-0.05150044193818576</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6425705663170176</v>
+        <v>0.7297837935927315</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1401979734886749</v>
+        <v>-0.1426980646189694</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1208792719272601</v>
+        <v>-0.1518774907862</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.0347620454758054</v>
+        <v>-0.01965762833134545</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2845391934181404</v>
+        <v>0.3205336913932772</v>
       </c>
     </row>
     <row r="19">
